--- a/biology/Botanique/Calville/Calville.xlsx
+++ b/biology/Botanique/Calville/Calville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caleville ou Calville est le nom d'un groupe de cultivars de pommiers à fruits côtelés plus ou moins allongés.
 </t>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Tableaux analytiques illustrés de pomologie de Constant Houlbert, le groupe des calvilliformes est défini comme « toute pomme dont le pourtour de la cavité oculaire présente des côtes bien accentuées, des bosselures ou des mamelons » sous divisé en calvilliformes plates (les apionnes et les rambours), les calvilliformes sphéroïdales (sous divisées en postophes et calvilles), les calvilliformes allongées (sous divisées en dolitonnes et pigeonnets).
 </t>
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès 1628, le pommier est cité par le Lectier, procureur du roi Louis XIII, qui possédait trois différents Calleville : la Calville blanc, la Calville rouge et la Calville clair.
 </t>
@@ -573,7 +589,9 @@
           <t>Répertoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Calville rouge d'automne.
@@ -623,9 +641,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard de Nerval[1] a noté à Pantin un cri de marchande de fruits où figure la pomme Calville : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard de Nerval a noté à Pantin un cri de marchande de fruits où figure la pomme Calville : 
 « Pommes de reinette et pommes d'api !Calvil, calvil, calvil rouge !Calvil rouge et calvil gris!Étant en crique dans ma boutique,J'vis des inconnus qui m'dirent:Mon p'tit cœur, venez me voir,Vous aurez grand débit.Nenni, messieurs,Je n'puis, d'ailleurs,Car il n' m' reste qu'un artichaut,Et trois petits choux-fleurs. »
 </t>
         </is>
